--- a/合计.xlsx
+++ b/合计.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/morikou/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/morikou/work/MyGit/RateTest/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="8740" yWindow="460" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="8740" yWindow="460" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -373,7 +373,7 @@
   <dimension ref="A5:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="182" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -383,7 +383,7 @@
   <sheetData>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>62230.98</v>
+        <v>55126.6</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>3</v>
@@ -391,7 +391,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>181981.3</v>
+        <v>179733.64</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>0</v>
@@ -407,7 +407,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>205765.14</v>
+        <v>201181.7</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>1</v>
@@ -415,7 +415,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>1016824.22</v>
+        <v>1020324.99</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>2</v>
@@ -424,7 +424,7 @@
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <f>SUM(A1,A3,A5,A7,A9,A11,A13,A15)</f>
-        <v>1472656.1099999999</v>
+        <v>1462221.4</v>
       </c>
     </row>
   </sheetData>

--- a/合计.xlsx
+++ b/合计.xlsx
@@ -370,10 +370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:B18"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="182" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -381,54 +381,196 @@
     <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G1">
+        <v>3.3</v>
+      </c>
+      <c r="I1">
+        <v>2</v>
+      </c>
+      <c r="J1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G2">
+        <v>3.9</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>55126.6</v>
+        <v>79058</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G5">
+        <v>3.5</v>
+      </c>
+      <c r="I5">
+        <v>7</v>
+      </c>
+      <c r="J5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>12</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>179733.64</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>12</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I8">
+        <v>14</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5854.47</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G9">
+        <v>4.5</v>
+      </c>
+      <c r="I9">
+        <v>15</v>
+      </c>
+      <c r="J9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G10">
+        <v>12.3</v>
+      </c>
+      <c r="I10">
+        <v>19</v>
+      </c>
+      <c r="J10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G11">
+        <v>1.9</v>
+      </c>
+      <c r="I11">
+        <v>23</v>
+      </c>
+      <c r="J11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I12">
+        <v>25</v>
+      </c>
+      <c r="J12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>201181.7</v>
+        <v>196921.08</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="I13">
+        <v>27</v>
+      </c>
+      <c r="J13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>1020324.99</v>
+        <v>1025285.31</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <f>SUM(A1,A3,A5,A7,A9,A11,A13,A15)</f>
-        <v>1462221.4</v>
+        <v>1486852.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G19">
+        <f>SUM(G1:G18)</f>
+        <v>49.800000000000004</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>